--- a/data/lake-superior-apostle-islands/lake-superior-apostle-islands-hatching.xlsx
+++ b/data/lake-superior-apostle-islands/lake-superior-apostle-islands-hatching.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-DegreeDay-Modeling/data/lake-superior-apostle-islands/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0FE1FAE-548B-7F48-BB7C-2A96CF218DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EE78EA-5C43-844D-85BE-BBAABEFB6470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="lake-superior-apis-hatching" sheetId="1" r:id="rId1"/>
+    <sheet name="lake-superior-apostle-hatching" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -21,9 +21,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>YEAR</t>
-  </si>
   <si>
     <t>min.date</t>
   </si>
@@ -42,11 +39,14 @@
   <si>
     <t>upper.dist</t>
   </si>
+  <si>
+    <t>year</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -882,11 +882,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -897,25 +897,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">

--- a/data/lake-superior-apostle-islands/lake-superior-apostle-islands-hatching.xlsx
+++ b/data/lake-superior-apostle-islands/lake-superior-apostle-islands-hatching.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-DegreeDay-Modeling/data/lake-superior-apostle-islands/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-Embryo-Modeling/data/lake-superior-apostle-islands/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EE78EA-5C43-844D-85BE-BBAABEFB6470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE529AD-BCDE-4E44-A08F-219EFA01DDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5560" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lake-superior-apostle-hatching" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>min.date</t>
   </si>
@@ -41,6 +41,81 @@
   </si>
   <si>
     <t>year</t>
+  </si>
+  <si>
+    <t>#/////////////////////////////////////</t>
+  </si>
+  <si>
+    <t># -----START OF METADATA -----</t>
+  </si>
+  <si>
+    <t># ------------------------------------------------</t>
+  </si>
+  <si>
+    <t># DATE: 1-July-2021</t>
+  </si>
+  <si>
+    <t># AUTHOR: Taylor R. Stewart</t>
+  </si>
+  <si>
+    <t># AUTHOR EMAIL: taylor.stewart@uvm.edu</t>
+  </si>
+  <si>
+    <t># AUTHOR ADDRESS: 3 College St, Burlington VT, 05401 USA</t>
+  </si>
+  <si>
+    <t># AUTHOR WEBSITE: https://taylorstewart.github.io/</t>
+  </si>
+  <si>
+    <t># OWNERSHIP: Taylor R. Stewart</t>
+  </si>
+  <si>
+    <t># COLLABORATORS: Matteo Zucchetta; Juha Karjalainen; Chloé Goulon; Orlane Anneville; Mark R. Vinson; Josef Wanzenböck; and Jason D. Stockwell</t>
+  </si>
+  <si>
+    <t># FUNDING SOURCES: USGS #G17AC00042</t>
+  </si>
+  <si>
+    <t># REPOSITORY: https://github.com/taylorstewart/Stewart-et-al-20XX---Coregonine-Embryo-Modeling</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># CITATIONS: </t>
+  </si>
+  <si>
+    <t># VARIABLE DESCRIPTION:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # year: year class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # min.date: first hatch date observed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # mean.date: mean hatch date observed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # max.date: last hatch date observed</t>
+  </si>
+  <si>
+    <t># TITLE: Back-calculated mean and normal distribution of larval hatch dates from R/V KIYI samples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # sigma.hatch: standard deviation of hatch dates; days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # lower.dist: lower distribution of hatch dates assuming a normal distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # upper.dist: upper distribution of hatch dates assuming a normal distribution</t>
+  </si>
+  <si>
+    <t># ----- END OF METADATA -----</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t># ----- START OF DATA -----</t>
   </si>
 </sst>
 </file>
@@ -883,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -895,141 +970,296 @@
     <col min="6" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C32" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D32" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E32" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F32" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G32" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>2014</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B33" s="1">
         <v>41766</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C33" s="2">
         <v>41785.523252314815</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D33" s="1">
         <v>41792</v>
       </c>
-      <c r="E2">
+      <c r="E33">
         <v>2.5103659635843401</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F33" s="2">
         <v>41783.012881944444</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G33" s="2">
         <v>41788.03361111111</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>2015</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B34" s="1">
         <v>42107</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C34" s="2">
         <v>42142.830266203702</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D34" s="1">
         <v>42153</v>
       </c>
-      <c r="E3">
+      <c r="E34">
         <v>3.9417563018763699</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F34" s="2">
         <v>42138.888506944444</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G34" s="2">
         <v>42146.772013888891</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>2016</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B35" s="1">
         <v>42469</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C35" s="2">
         <v>42501.423587962963</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D35" s="1">
         <v>42516</v>
       </c>
-      <c r="E4">
+      <c r="E35">
         <v>5.6497691838686297</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F35" s="2">
         <v>42495.773819444446</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G35" s="2">
         <v>42507.07335648148</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>2017</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B36" s="1">
         <v>42837</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C36" s="2">
         <v>42866.696666666663</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D36" s="1">
         <v>42880</v>
       </c>
-      <c r="E5">
+      <c r="E36">
         <v>5.1563265950467398</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F36" s="2">
         <v>42861.540347222224</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G36" s="2">
         <v>42871.852997685186</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>2018</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B37" s="1">
         <v>43207</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C37" s="2">
         <v>43238.227997685186</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D37" s="1">
         <v>43248</v>
       </c>
-      <c r="E6">
+      <c r="E37">
         <v>3.7875968992245901</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F37" s="2">
         <v>43234.440393518518</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G37" s="2">
         <v>43242.015590277777</v>
       </c>
     </row>
